--- a/doc/02.外部設計/01.画面詳細.xlsx
+++ b/doc/02.外部設計/01.画面詳細.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\ポートフォリオ-20220702T005113Z-001\ポートフォリオ\02.外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_yokoyama\Desktop\AttendanceManagement\doc\02.外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD30C976-9B5A-4FC0-8DF9-0081BFCA76F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6F76F3-0A25-4DD3-8316-839F7BB30CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="850" activeTab="2" xr2:uid="{7F7FE124-C515-4593-A2BA-1E8E1EFBB3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="850" firstSheet="13" activeTab="20" xr2:uid="{7F7FE124-C515-4593-A2BA-1E8E1EFBB3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="01ログイン" sheetId="2" r:id="rId2"/>
-    <sheet name="02パスワード変更" sheetId="3" r:id="rId3"/>
-    <sheet name="03トップ画面" sheetId="8" r:id="rId4"/>
-    <sheet name="04出退勤画面" sheetId="5" r:id="rId5"/>
-    <sheet name="05日報画面" sheetId="7" r:id="rId6"/>
-    <sheet name="06勤怠一覧" sheetId="9" r:id="rId7"/>
-    <sheet name="07編集画面" sheetId="10" r:id="rId8"/>
-    <sheet name="08部下一覧" sheetId="12" r:id="rId9"/>
+    <sheet name="社員側" sheetId="14" r:id="rId2"/>
+    <sheet name="01ログイン" sheetId="2" r:id="rId3"/>
+    <sheet name="02ナビゲーションバー" sheetId="15" r:id="rId4"/>
+    <sheet name="03ホーム画面" sheetId="8" r:id="rId5"/>
+    <sheet name="04出退勤画面" sheetId="5" r:id="rId6"/>
+    <sheet name="05日報画面" sheetId="7" r:id="rId7"/>
+    <sheet name="06勤怠一覧" sheetId="9" r:id="rId8"/>
+    <sheet name="07勤怠絞り込み" sheetId="16" r:id="rId9"/>
+    <sheet name="08日報表示" sheetId="17" r:id="rId10"/>
+    <sheet name="09勤怠修正" sheetId="10" r:id="rId11"/>
+    <sheet name="10部下一覧" sheetId="12" r:id="rId12"/>
+    <sheet name="11パスワード変更（自分以外）" sheetId="3" r:id="rId13"/>
+    <sheet name="12パスワード変更（自分自身） " sheetId="18" r:id="rId14"/>
+    <sheet name="管理者側" sheetId="19" r:id="rId15"/>
+    <sheet name="13ログイン" sheetId="13" r:id="rId16"/>
+    <sheet name="14ナビゲーションバー " sheetId="20" r:id="rId17"/>
+    <sheet name="15ホーム画面" sheetId="21" r:id="rId18"/>
+    <sheet name="16社員一覧 " sheetId="23" r:id="rId19"/>
+    <sheet name="17退職者一覧  " sheetId="24" r:id="rId20"/>
+    <sheet name="18詳細画面" sheetId="25" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,8 +54,296 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={140D582C-ED69-4721-9BAF-018065C972F7}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{140D582C-ED69-4721-9BAF-018065C972F7}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={237A7544-F045-4F19-924A-3F1EDECFEC90}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{237A7544-F045-4F19-924A-3F1EDECFEC90}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C43B1BC0-52E8-4651-A3DE-601AD4C0DBC9}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{C43B1BC0-52E8-4651-A3DE-601AD4C0DBC9}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={40DEE124-33E7-46A4-BC5E-960DF4893903}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{40DEE124-33E7-46A4-BC5E-960DF4893903}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={ED871515-F449-460B-9633-AA5912C7F97E}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{ED871515-F449-460B-9633-AA5912C7F97E}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={451EBB0E-E8BF-48BC-BA2D-4A2A1A50B6E9}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{451EBB0E-E8BF-48BC-BA2D-4A2A1A50B6E9}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7DC585B8-31FC-41B7-BF22-6FD35EEE19DD}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{7DC585B8-31FC-41B7-BF22-6FD35EEE19DD}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={614271C6-5C4A-48BD-B937-BC8EDAA09CB6}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{614271C6-5C4A-48BD-B937-BC8EDAA09CB6}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2E0D7D9A-D9AC-447A-8B57-35CB912C3092}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{2E0D7D9A-D9AC-447A-8B57-35CB912C3092}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={38621879-2144-4BBC-8537-A8B8F0482020}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{38621879-2144-4BBC-8537-A8B8F0482020}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={760B3934-4840-400B-8A24-8A8D895651A2}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{760B3934-4840-400B-8A24-8A8D895651A2}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={16271728-DD83-4A8C-B02E-92E3E469BF91}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{16271728-DD83-4A8C-B02E-92E3E469BF91}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F95FD24B-4AB1-477C-A9F4-1200F092BC8C}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{F95FD24B-4AB1-477C-A9F4-1200F092BC8C}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A687D73E-0599-45B3-9C80-B992D0477F6B}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{A687D73E-0599-45B3-9C80-B992D0477F6B}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={082DCACC-05C9-47BD-97BD-4143A4E45294}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{082DCACC-05C9-47BD-97BD-4143A4E45294}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CD74A12F-370A-4711-B317-C7FF48F70DA3}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{CD74A12F-370A-4711-B317-C7FF48F70DA3}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    クリックによるアクション有無</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="221">
   <si>
     <t>変更日</t>
   </si>
@@ -99,13 +399,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード露出</t>
-    <rPh sb="5" eb="7">
-      <t>ロシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインボタン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -152,9 +445,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>旧パスワード</t>
-  </si>
-  <si>
     <t>テキストボックス</t>
   </si>
   <si>
@@ -167,13 +457,7 @@
     <t>新パスワード</t>
   </si>
   <si>
-    <t>パスワード露出</t>
-  </si>
-  <si>
     <t>チェックボックス</t>
-  </si>
-  <si>
-    <t>確定ボタン</t>
   </si>
   <si>
     <t>ボタン</t>
@@ -231,33 +515,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出勤ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>シュッキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退勤ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>タイキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出退勤切替</t>
-    <rPh sb="0" eb="3">
-      <t>シュッタイキン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日報</t>
     <rPh sb="0" eb="2">
       <t>ニッポウ</t>
@@ -265,21 +522,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確定ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全角　半角英数字</t>
-  </si>
-  <si>
-    <t>詳細画面</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>O</t>
@@ -322,22 +565,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出勤ボタンと退勤ボタンが入れ替わる</t>
-    <rPh sb="0" eb="2">
-      <t>シュッキン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>タイキン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力は任意</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -384,106 +611,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリックすることで、出勤時間をDBに登録する
-退勤ボタンと同時表示はしない</t>
-    <rPh sb="10" eb="12">
-      <t>シュッキン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>タイキン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリックすることで、退勤時間をDBに登録する
-出勤ボタンと同時表示はしない</t>
-    <rPh sb="10" eb="12">
-      <t>タイキン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュッキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メッセージ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間帯により異なるメッセージを表示する</t>
-    <rPh sb="0" eb="3">
-      <t>ジカンタイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日報画面</t>
-    <rPh sb="0" eb="2">
-      <t>ニッポウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ここで出勤画面と日報画面を表示する。</t>
-    <rPh sb="4" eb="6">
-      <t>シュッキン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニッポウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ログイン後に遷移する画面</t>
-    <rPh sb="5" eb="6">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -528,13 +660,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>曜日</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>休憩</t>
     <rPh sb="0" eb="2">
       <t>キュウケイ</t>
@@ -570,61 +695,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>業務内容</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鉛筆マーク</t>
-    <rPh sb="0" eb="2">
-      <t>エンピツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリックすることで編集画面へ遷移する</t>
-    <rPh sb="9" eb="11">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日報画面で入力した内容の前半10文字を表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ニッポウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゼンハン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勤務時間に応じた休憩時間を表示する</t>
     <rPh sb="0" eb="2">
       <t>キンム</t>
@@ -691,16 +761,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出退勤画面</t>
-    <rPh sb="0" eb="3">
-      <t>シュッタイキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出退勤画面で打刻した退勤時間を表示する</t>
     <rPh sb="0" eb="3">
       <t>シュッタイキン</t>
@@ -723,38 +783,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>月度に対応した日付を表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ゲツド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付に対応した曜日を表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨウビ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勤怠一覧を開いているユーザー名を表示する</t>
     <rPh sb="0" eb="2">
       <t>キンタイ</t>
@@ -824,13 +852,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>編集画面</t>
-    <rPh sb="0" eb="4">
-      <t>ヘンシュウガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリックすることで編集が確定する</t>
     <rPh sb="9" eb="11">
       <t>ヘンシュウ</t>
@@ -854,50 +875,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員側は編集することが可能、上司側は編集は不可</t>
-    <rPh sb="0" eb="3">
-      <t>シャインガワ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ジョウシガワ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員側は編集することが不可、上司側は編集は可能</t>
-    <rPh sb="0" eb="3">
-      <t>シャインガワ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ジョウシガワ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員番号</t>
     <rPh sb="0" eb="4">
       <t>シャインバンゴウ</t>
@@ -926,13 +903,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>部下一覧</t>
-    <rPh sb="0" eb="4">
-      <t>ブカイチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>配下社員の番号を表示する</t>
     <rPh sb="0" eb="1">
       <t>クバ</t>
@@ -962,7 +932,684 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリックすることで部下の勤怠一覧へ移動する</t>
+    <t>ログイン保持</t>
+    <rPh sb="4" eb="6">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック時にログイン状態を保持する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のパスワード</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることで、退勤時間をDBに登録する</t>
+    <rPh sb="10" eb="12">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることで、出勤時間をDBに登録する</t>
+    <rPh sb="10" eb="12">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間帯により異なるメッセージを表示する※1</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ログイン試行回数は5回、タイムアウト時間は5分で設定</t>
+    <rPh sb="5" eb="7">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※パスワード失念時は上司にて変更を行うため、変更を行うリンクは設定しない。</t>
+    <rPh sb="6" eb="8">
+      <t>シツネン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックにより管理者用のログイン画面に移動する</t>
+    <rPh sb="7" eb="11">
+      <t>カンリシャヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用画面へ</t>
+    <rPh sb="0" eb="4">
+      <t>カンリシャヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出退勤画面へ</t>
+    <rPh sb="0" eb="3">
+      <t>シュッタイキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックにより管理者用の出退勤画面に移動する</t>
+    <rPh sb="7" eb="11">
+      <t>カンリシャヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>シュッタイキン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOMEボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月別勤怠一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部下一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすると、月別勤怠一覧画面に移動する</t>
+    <rPh sb="8" eb="10">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすると、パスワード変更画面に移動する</t>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすると、ログアウトする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすると、部下一覧画面に移動する
+部下配属権限が付与されていない場合は、リンク自体を表示しない</t>
+    <rPh sb="8" eb="10">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハイゾク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>戻るボタン</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絞り込みボタン</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定開始日</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定終了日</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることで指定期間内の出勤日数、総勤務時間、残業時間を検索するフォームが表示される</t>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キカンナイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることで指定期間内の出勤日数、総勤務時間、残業時間を検索する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧合計</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面で開いている月度の合計の出勤日数、総勤務時間、残業時間を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲツド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月度に対応した日付と曜日を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ゲツド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫眼鏡</t>
+    <rPh sb="0" eb="3">
+      <t>ムシメガネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日報画面で入力した内容の前半20文字程度を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンハン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることで前の画面に戻る</t>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索期間</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前の画面の絞り込みボタンで選択した期間が表示される</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「選択した日付+日報」をタイトルとして表示</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることでモーダルが閉じる</t>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日報の全文が表示される
+編集はできない</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「選択した日付+勤怠修正画面」をタイトルとして表示</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日報を編集できる
+未入力の場合は、新規登録される</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の勤怠一覧を開いたときに虫眼鏡を表示
+クリックすることで日報全文を表示するモーダルが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ムシメガネ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゼンブン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分以外の勤怠一覧を開いたときに鉛筆を表示
+クリックすることで日報全文を表示するモーダルが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>エンピツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンブン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることで部下の勤怠一覧へ移動する※1</t>
     <rPh sb="9" eb="11">
       <t>ブカ</t>
     </rPh>
@@ -975,7 +1622,714 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリックすることで部下のパスワード変更画面へ移動する</t>
+    <t>虫眼鏡※1</t>
+    <rPh sb="0" eb="3">
+      <t>ムシメガネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉛筆※1</t>
+    <rPh sb="0" eb="2">
+      <t>エンピツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1：自分の勤怠一覧は虫眼鏡を表示、自分以外の勤怠一覧は鉛筆を表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ムシメガネ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>エンピツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「部下一覧」とタイトルを表示する</t>
+    <rPh sb="1" eb="3">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードを変更する社員名を表示する</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1：4～11時まで→おはようございます、〇〇（社員名）さん</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　11時～15時まで→こんにちは、〇〇（社員名）さん</t>
+  </si>
+  <si>
+    <t>　　それ以外の時間帯のとき→お疲れ様です、〇〇（社員名）さん</t>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧を開いている社員名を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックにより前の画面に戻る</t>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確定</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退勤</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワード変更画面」とタイトルを表示する</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード表示</t>
+  </si>
+  <si>
+    <t>パスワード表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索を行う開始日を選択する
+手入力、もしくはカレンダーから選択する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索を行う終了日を選択する
+手入力、もしくはカレンダーから選択する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索を行う開始日を選択する
+手入力、もしくはカレンダーから選択する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤時間を手入力、もしは時計から選択する
+未入力の場合は、新規登録される</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退勤時間を手入力、もしは時計から選択する
+未入力の場合は、新規登録される</t>
+    <rPh sb="0" eb="2">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※以降のシートは、社員側の画面詳細である。</t>
+    <rPh sb="1" eb="3">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※以降のシートは、管理者側（admin）の画面詳細である。</t>
+    <rPh sb="1" eb="3">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすると、社員新規登録画面に移動する</t>
+    <rPh sb="8" eb="10">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※社員側のホーム画面では、出勤画面と日報画面を表示する。</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすると、ホーム画面に移動する</t>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることでホーム画面に戻る</t>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックによりホーム画面に戻る</t>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※最初にログインした後に遷移する画面</t>
+    <rPh sb="1" eb="3">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在職者の社員番号を表示する</t>
+    <rPh sb="0" eb="3">
+      <t>ザイショクシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員名を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることで選択した社員の勤怠一覧へ移動する※1</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キンタイイチラン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1：勤怠一覧の詳細は画面詳細「06勤怠一覧」のシートへ記載</t>
+    <rPh sb="3" eb="5">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人員検索</t>
+    <rPh sb="0" eb="2">
+      <t>ジンイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在職者一覧</t>
+    <rPh sb="0" eb="3">
+      <t>ザイショクシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることで選択した社員の詳細画面へ移動する</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックにより、検索文字に従い検索し、一覧に表示する情報を表示する
+文字が入力されていない場合は、全件を表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員名、もしくは社員番号を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職者一覧</t>
+    <rPh sb="0" eb="3">
+      <t>タイショクシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職者がいる場合は、リンクを表示する
+クリックすることで退職者一覧画面へ移動する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイショク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「退職者一覧」とタイトルを表示する</t>
+    <rPh sb="1" eb="4">
+      <t>タイショクシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員一覧</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在職者がいる場合は、リンクを表示する
+クリックすることで社員一覧画面へ移動する</t>
+    <rPh sb="0" eb="3">
+      <t>ザイショクシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※管理者側のホーム画面では、社員一覧画面を表示する。</t>
+    <rPh sb="1" eb="4">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることで部下のパスワード変更画面へ移動する※2</t>
     <rPh sb="9" eb="11">
       <t>ブカ</t>
     </rPh>
@@ -987,6 +2341,513 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※2：パスワード変更の詳細は画面詳細「11パスワード変更（自分以外）」のシートへ記載</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることで選択した社員のパスワード変更画面へ移動する※2</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾍｯﾀﾞｰ領域</t>
+    <rPh sb="5" eb="7">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細領域</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾓｰﾀﾞﾙ領域</t>
+  </si>
+  <si>
+    <t>ﾓｰﾀﾞﾙ領域</t>
+    <rPh sb="5" eb="7">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾓｰﾀﾞﾙ領域</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾓｰﾀﾞﾙ領域</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細領域</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職</t>
+    <rPh sb="0" eb="2">
+      <t>タイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員名</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部下配属権限</t>
+    <rPh sb="0" eb="2">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイゾク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者番号</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者名</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者検索</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社日</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トグル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復職</t>
+    <rPh sb="0" eb="2">
+      <t>フクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職者一覧から開いたときのボタン表示
+詳細画面をクリックにより、選択した社員の退職確認画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員一覧から開いたときのボタン表示
+詳細画面をクリックにより、選択した社員の退職確認画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タイショク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに登録の社員名を表示する</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB登録時に付与された社員番号を表示する
+編集は出来ない</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB上の部下配属権限が1の場合ON、0の場合は、OFFの状態で表示する
+ONにすることで、管理者検索のリストに社員名が表示される
+管理者として選択されることで、選択された社員の勤怠修正・パスワード変更を部下一覧から行うことができる</t>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した社員の入社日を表示</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録情報を変更した日時を表示</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに新規登録した日時を表示</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始業時間-終業時間-休憩時間の結果が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した社員の始業時間を表示</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した社員の終業時間を表示</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -995,7 +2856,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,8 +2880,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +2898,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,7 +2952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,6 +2977,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1118,6 +2998,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ko3001" id="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" userId="Ko3001" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1415,6 +3301,134 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{140D582C-ED69-4721-9BAF-018065C972F7}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment10.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{237A7544-F045-4F19-924A-3F1EDECFEC90}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment11.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{C43B1BC0-52E8-4651-A3DE-601AD4C0DBC9}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment12.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{40DEE124-33E7-46A4-BC5E-960DF4893903}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment13.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{ED871515-F449-460B-9633-AA5912C7F97E}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment14.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{451EBB0E-E8BF-48BC-BA2D-4A2A1A50B6E9}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment15.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{7DC585B8-31FC-41B7-BF22-6FD35EEE19DD}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment16.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{614271C6-5C4A-48BD-B937-BC8EDAA09CB6}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{2E0D7D9A-D9AC-447A-8B57-35CB912C3092}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{38621879-2144-4BBC-8537-A8B8F0482020}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{760B3934-4840-400B-8A24-8A8D895651A2}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{16271728-DD83-4A8C-B02E-92E3E469BF91}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{F95FD24B-4AB1-477C-A9F4-1200F092BC8C}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{A687D73E-0599-45B3-9C80-B992D0477F6B}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment8.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{082DCACC-05C9-47BD-97BD-4143A4E45294}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment9.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2022-08-18T03:44:35.57" personId="{5274730C-9FB5-4FB3-A833-70BA481D0E74}" id="{CD74A12F-370A-4711-B317-C7FF48F70DA3}">
+    <text>クリックによるアクション有無</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCAF6BD-F74A-4524-85B4-0782EBCFC2C9}">
   <dimension ref="A1:D1"/>
@@ -1423,9 +3437,9 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1445,16 +3459,1181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0AD6CE-0413-4949-A29D-C5F1481377F0}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8DE6DD-1612-4482-A796-07219B1D8FB8}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="37.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>1024</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AEECDF-1861-4AD3-AE60-5F38C72ADBFE}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="37.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="37.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="37.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>1024</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50DD102-BE95-486C-9A8A-8C083BB5FBEA}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="37.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="37.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="37.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BB9AE7-4BC4-49B7-87FF-E5D28C73C643}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="37.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>256</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4407E485-061D-4A59-BA97-C666F7014EB7}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>256</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>256</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129779E9-788D-45FB-906B-590181E417B7}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AA3F9F-11AD-4ED2-97F8-0D9C689EF3CC}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
@@ -1464,7 +4643,7 @@
     <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1478,7 +4657,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>9</v>
@@ -1487,13 +4666,13 @@
         <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1507,16 +4686,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1530,98 +4709,165 @@
         <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" t="s">
         <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BB9AE7-4BC4-49B7-87FF-E5D28C73C643}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FF260C-7E6D-4638-918C-7AC33F18B5D6}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +4881,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>9</v>
@@ -1644,96 +4890,108 @@
         <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2">
-        <v>256</v>
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>256</v>
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>188</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>256</v>
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>188</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -1745,21 +5003,24 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>188</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -1771,31 +5032,32 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CDE1B7-E8AD-4E60-91F4-805E000802E0}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C905D4-816A-4D53-B21B-3585F8E4EABE}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD5"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
@@ -1805,7 +5067,7 @@
     <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1828,20 +5090,20 @@
         <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1850,16 +5112,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C39B93A-7A80-475B-A7EF-DBF16FBFB468}">
-  <dimension ref="A1:I7"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E588AE96-AEA4-4D69-AF03-2EC8C215A3D4}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
@@ -1870,7 +5132,7 @@
     <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1884,7 +5146,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>9</v>
@@ -1893,131 +5155,131 @@
         <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="37.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="56.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3">
-        <v>32</v>
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="37.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>105</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="I5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="37.5">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -2026,27 +5288,27 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="37.5">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -2055,31 +5317,103 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="37.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="37.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B4ECB7-5E5D-46B1-90F4-C4D15D1D1FE9}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15196DF8-3D0B-4907-85A3-7A74660AD182}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
@@ -2089,7 +5423,7 @@
     <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2112,65 +5446,15 @@
         <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>1024</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2179,16 +5463,1621 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B543A80A-8432-4735-90E8-3999D9972E93}">
-  <dimension ref="A1:I12"/>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6736CC8C-2834-47AA-ABCF-DA46CF96D8D0}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="37.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="56.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="37.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="37.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="37.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="37.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="37.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310E6B2D-4BEE-419C-9740-8961CF55113B}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="56.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="56.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="37.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="131.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0AD6CE-0413-4949-A29D-C5F1481377F0}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>256</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B286C1C4-0711-459B-BBBB-CE0BD1E76CF7}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="56.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CDE1B7-E8AD-4E60-91F4-805E000802E0}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C39B93A-7A80-475B-A7EF-DBF16FBFB468}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="37.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B4ECB7-5E5D-46B1-90F4-C4D15D1D1FE9}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="37.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1024</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B543A80A-8432-4735-90E8-3999D9972E93}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
@@ -2199,7 +7088,7 @@
     <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +7102,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>9</v>
@@ -2222,330 +7111,506 @@
         <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="37.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="37.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>48</v>
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="56.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>48</v>
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="37.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="37.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="37.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>48</v>
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="37.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>48</v>
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="37.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="37.5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="37.5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="37.5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="37.5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="37.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="37.5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
         <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="56.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="56.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AEECDF-1861-4AD3-AE60-5F38C72ADBFE}">
-  <dimension ref="A1:I6"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E2641F-5A10-43B0-8894-A4FD8061B541}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2559,7 +7624,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>9</v>
@@ -2568,314 +7633,233 @@
         <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="37.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>48</v>
+        <v>105</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="56.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>189</v>
+      </c>
+      <c r="H3" t="s">
+        <v>107</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="37.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>1024</v>
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="37.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>97</v>
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="37.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="37.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50DD102-BE95-486C-9A8A-8C083BB5FBEA}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>